--- a/public/public/assets/frontend/kho.xlsx
+++ b/public/public/assets/frontend/kho.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jtecweb\public\public\assets\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E24F4-0829-451B-A6F6-7F6F34A37156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7673199-EBD4-4753-A196-67C6DD7ED6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>class7</t>
+    <t>RACK NO</t>
   </si>
   <si>
-    <t>RACK</t>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>MT-01</t>
   </si>
 </sst>
 </file>
@@ -354,23 +357,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="3.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>224424</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="E1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
